--- a/SingalCost/SingalCosts.xlsx
+++ b/SingalCost/SingalCosts.xlsx
@@ -65,58 +65,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="B1" s="0">
-        <v>624</v>
+        <v>738</v>
       </c>
       <c r="C1" s="0">
-        <v>986</v>
+        <v>1048</v>
       </c>
       <c r="D1" s="0">
-        <v>1400</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B2" s="0">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="C2" s="0">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="D2" s="0">
-        <v>1348</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B3" s="0">
-        <v>719</v>
+        <v>653</v>
       </c>
       <c r="C3" s="0">
-        <v>1038</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="0">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>1415</v>
       </c>
     </row>
   </sheetData>

--- a/SingalCost/SingalCosts.xlsx
+++ b/SingalCost/SingalCosts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simulation\SingalCost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA37A7D9-CF33-4C28-9667-1EE3901ECD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E34221-75C0-4F31-8FCE-EC66B0EFBB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2076" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SingalCost" sheetId="2" r:id="rId1"/>
@@ -369,74 +369,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1">
-        <v>0.51249999999999996</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="B1">
-        <v>1.1125</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="C1">
-        <v>1.7224999999999999</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D1">
-        <v>2.5051000000000001</v>
+        <v>1.2875000000000001</v>
+      </c>
+      <c r="E1">
+        <v>1.64</v>
+      </c>
+      <c r="F1">
+        <v>1.931</v>
+      </c>
+      <c r="G1">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="H1">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="I1">
+        <v>3.2025000000000001</v>
+      </c>
+      <c r="J1">
+        <v>3.5825</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>0.50539999999999996</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="B2">
-        <v>1.0475000000000001</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="C2">
-        <v>1.6225000000000001</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="D2">
-        <v>2.3132999999999999</v>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="E2">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="G2">
+        <v>2.1074999999999999</v>
+      </c>
+      <c r="H2">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="I2">
+        <v>2.8624999999999998</v>
+      </c>
+      <c r="J2">
+        <v>3.0625</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.52700000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="B3">
-        <v>1.0321</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="C3">
-        <v>1.6074999999999999</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="D3">
-        <v>2.3553999999999999</v>
+        <v>1.2075</v>
+      </c>
+      <c r="E3">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="G3">
+        <v>2.1</v>
+      </c>
+      <c r="H3">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="I3">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="J3">
+        <v>3.0825</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.50749999999999995</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="B4">
-        <v>1.0350999999999999</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="C4">
-        <v>1.6125</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="D4">
-        <v>2.3374999999999999</v>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.7475000000000001</v>
+      </c>
+      <c r="G4">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="H4">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="I4">
+        <v>2.7875000000000001</v>
+      </c>
+      <c r="J4">
+        <v>3.0125000000000002</v>
       </c>
     </row>
   </sheetData>
